--- a/Inputs/Daman/rateSheet.xlsx
+++ b/Inputs/Daman/rateSheet.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Within UAE: Exclusive 1  Outside UAE: WW excl. US &amp; Canada</t>
   </si>
   <si>
-    <t xml:space="preserve">Worldwide excluding USA and Canada</t>
+    <t xml:space="preserve">Worldwide excluding USA &amp; Canada</t>
   </si>
   <si>
     <t xml:space="preserve">Care Silver DNE ISG</t>
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -165,6 +165,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,7 +214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,18 +247,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -263,29 +272,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L217"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K48" activeCellId="0" sqref="K48"/>
+      <selection pane="topLeft" activeCell="D110" activeCellId="0" sqref="D110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="12.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="34.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,7 +333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.05" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -358,7 +365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -390,7 +397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -422,7 +429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -454,7 +461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -486,7 +493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -518,7 +525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -550,7 +557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -582,7 +589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -614,7 +621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -646,7 +653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -678,7 +685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -710,7 +717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -745,7 +752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -780,7 +787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -815,7 +822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -850,7 +857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
@@ -885,7 +892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
@@ -920,7 +927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
@@ -955,7 +962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -990,7 +997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -1025,7 +1032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -1060,7 +1067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -1095,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
@@ -1130,7 +1137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1165,7 +1172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -1200,7 +1207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1235,7 +1242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
@@ -1270,7 +1277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -1305,7 +1312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
@@ -1340,7 +1347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>12</v>
       </c>
@@ -1375,7 +1382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +1417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>12</v>
       </c>
@@ -1445,7 +1452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
@@ -1480,7 +1487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>12</v>
       </c>
@@ -1515,7 +1522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>12</v>
       </c>
@@ -1550,7 +1557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>20</v>
       </c>
@@ -1582,7 +1589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -1646,7 +1653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
         <v>20</v>
       </c>
@@ -1678,7 +1685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
         <v>20</v>
       </c>
@@ -1710,7 +1717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
         <v>20</v>
       </c>
@@ -1742,7 +1749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
         <v>20</v>
       </c>
@@ -1774,7 +1781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>20</v>
       </c>
@@ -1806,7 +1813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>20</v>
       </c>
@@ -1838,7 +1845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>20</v>
       </c>
@@ -1870,7 +1877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
         <v>20</v>
       </c>
@@ -1902,7 +1909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>20</v>
       </c>
@@ -1934,7 +1941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
         <v>20</v>
       </c>
@@ -1969,7 +1976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>20</v>
       </c>
@@ -2004,7 +2011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
         <v>20</v>
       </c>
@@ -2039,7 +2046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
         <v>20</v>
       </c>
@@ -2074,7 +2081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
         <v>20</v>
       </c>
@@ -2109,7 +2116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
         <v>20</v>
       </c>
@@ -2144,7 +2151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
         <v>20</v>
       </c>
@@ -2179,7 +2186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
         <v>20</v>
       </c>
@@ -2214,7 +2221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
         <v>20</v>
       </c>
@@ -2249,7 +2256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
         <v>20</v>
       </c>
@@ -2284,7 +2291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
         <v>20</v>
       </c>
@@ -2319,7 +2326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
         <v>20</v>
       </c>
@@ -2354,7 +2361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
         <v>20</v>
       </c>
@@ -2389,7 +2396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
         <v>20</v>
       </c>
@@ -2424,7 +2431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
         <v>20</v>
       </c>
@@ -2459,7 +2466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
         <v>20</v>
       </c>
@@ -2494,7 +2501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
         <v>20</v>
       </c>
@@ -2529,7 +2536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
         <v>20</v>
       </c>
@@ -2564,7 +2571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
         <v>20</v>
       </c>
@@ -2599,7 +2606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
         <v>20</v>
       </c>
@@ -2634,7 +2641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
         <v>20</v>
       </c>
@@ -2669,7 +2676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
         <v>20</v>
       </c>
@@ -2704,7 +2711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
         <v>20</v>
       </c>
@@ -2739,7 +2746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
         <v>20</v>
       </c>
@@ -2774,7 +2781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
         <v>21</v>
       </c>
@@ -2809,7 +2816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
         <v>21</v>
       </c>
@@ -2844,7 +2851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
         <v>21</v>
       </c>
@@ -2879,7 +2886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
         <v>21</v>
       </c>
@@ -2914,7 +2921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
         <v>21</v>
       </c>
@@ -2949,7 +2956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
         <v>21</v>
       </c>
@@ -2984,7 +2991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
         <v>21</v>
       </c>
@@ -3019,7 +3026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
         <v>21</v>
       </c>
@@ -3054,7 +3061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
         <v>21</v>
       </c>
@@ -3089,7 +3096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
         <v>21</v>
       </c>
@@ -3124,7 +3131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
         <v>21</v>
       </c>
@@ -3159,7 +3166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
         <v>21</v>
       </c>
@@ -3194,7 +3201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
         <v>21</v>
       </c>
@@ -3232,7 +3239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
         <v>21</v>
       </c>
@@ -3270,7 +3277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
         <v>21</v>
       </c>
@@ -3308,7 +3315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
         <v>21</v>
       </c>
@@ -3346,7 +3353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
         <v>21</v>
       </c>
@@ -3384,7 +3391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
         <v>21</v>
       </c>
@@ -3422,7 +3429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
         <v>21</v>
       </c>
@@ -3460,7 +3467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
         <v>21</v>
       </c>
@@ -3498,7 +3505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
         <v>21</v>
       </c>
@@ -3536,7 +3543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
         <v>21</v>
       </c>
@@ -3574,7 +3581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
         <v>21</v>
       </c>
@@ -3612,7 +3619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
         <v>21</v>
       </c>
@@ -3650,7 +3657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
         <v>21</v>
       </c>
@@ -3688,7 +3695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
         <v>21</v>
       </c>
@@ -3726,7 +3733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
         <v>21</v>
       </c>
@@ -3764,7 +3771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
         <v>21</v>
       </c>
@@ -3802,7 +3809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
         <v>21</v>
       </c>
@@ -3840,7 +3847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
         <v>21</v>
       </c>
@@ -3878,7 +3885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
         <v>21</v>
       </c>
@@ -3916,7 +3923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
         <v>21</v>
       </c>
@@ -3954,7 +3961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
         <v>21</v>
       </c>
@@ -3992,7 +3999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
         <v>21</v>
       </c>
@@ -4030,7 +4037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
         <v>21</v>
       </c>
@@ -4068,7 +4075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
         <v>21</v>
       </c>
@@ -4113,7 +4120,7 @@
       <c r="B110" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="5" t="n">
@@ -4141,14 +4148,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="5" t="n">
@@ -4176,14 +4183,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="5" t="n">
@@ -4211,14 +4218,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="5" t="n">
@@ -4246,14 +4253,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="5" t="n">
@@ -4281,14 +4288,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="5" t="n">
@@ -4316,14 +4323,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="5" t="n">
@@ -4351,14 +4358,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="5" t="n">
@@ -4386,14 +4393,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="5" t="n">
@@ -4421,14 +4428,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="5" t="n">
@@ -4456,14 +4463,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="5" t="n">
@@ -4491,14 +4498,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="5" t="n">
@@ -4526,14 +4533,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="5" t="n">
@@ -4564,14 +4571,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="5" t="n">
@@ -4602,14 +4609,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="5" t="n">
@@ -4640,14 +4647,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="5" t="n">
@@ -4678,14 +4685,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="5" t="n">
@@ -4716,14 +4723,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="5" t="n">
@@ -4754,14 +4761,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="5" t="n">
@@ -4792,14 +4799,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="5" t="n">
@@ -4830,14 +4837,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="5" t="n">
@@ -4868,14 +4875,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="5" t="n">
@@ -4906,14 +4913,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D132" s="5" t="n">
@@ -4944,14 +4951,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D133" s="5" t="n">
@@ -4982,14 +4989,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D134" s="5" t="n">
@@ -5020,14 +5027,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="5" t="n">
@@ -5058,14 +5065,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D136" s="5" t="n">
@@ -5096,14 +5103,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="5" t="n">
@@ -5134,14 +5141,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="5" t="n">
@@ -5172,14 +5179,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="5" t="n">
@@ -5210,14 +5217,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D140" s="5" t="n">
@@ -5248,14 +5255,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D141" s="5" t="n">
@@ -5286,14 +5293,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="5" t="n">
@@ -5324,14 +5331,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D143" s="5" t="n">
@@ -5362,14 +5369,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="5" t="n">
@@ -5400,14 +5407,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="20.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D145" s="5" t="n">
@@ -5438,14 +5445,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D146" s="5" t="n">
@@ -5473,14 +5480,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D147" s="5" t="n">
@@ -5508,14 +5515,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D148" s="5" t="n">
@@ -5543,14 +5550,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D149" s="5" t="n">
@@ -5578,14 +5585,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D150" s="5" t="n">
@@ -5613,14 +5620,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D151" s="5" t="n">
@@ -5648,14 +5655,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D152" s="5" t="n">
@@ -5683,14 +5690,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D153" s="5" t="n">
@@ -5718,14 +5725,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D154" s="5" t="n">
@@ -5753,14 +5760,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D155" s="5" t="n">
@@ -5788,14 +5795,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D156" s="5" t="n">
@@ -5823,14 +5830,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D157" s="5" t="n">
@@ -5858,14 +5865,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D158" s="5" t="n">
@@ -5896,14 +5903,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D159" s="5" t="n">
@@ -5934,14 +5941,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D160" s="5" t="n">
@@ -5972,14 +5979,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D161" s="5" t="n">
@@ -6010,14 +6017,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D162" s="5" t="n">
@@ -6048,14 +6055,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D163" s="5" t="n">
@@ -6086,14 +6093,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D164" s="5" t="n">
@@ -6124,14 +6131,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D165" s="5" t="n">
@@ -6162,14 +6169,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D166" s="5" t="n">
@@ -6200,14 +6207,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D167" s="5" t="n">
@@ -6238,14 +6245,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D168" s="5" t="n">
@@ -6276,14 +6283,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D169" s="5" t="n">
@@ -6314,14 +6321,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D170" s="5" t="n">
@@ -6352,14 +6359,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D171" s="5" t="n">
@@ -6390,14 +6397,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D172" s="5" t="n">
@@ -6428,14 +6435,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D173" s="5" t="n">
@@ -6466,14 +6473,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D174" s="5" t="n">
@@ -6504,14 +6511,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D175" s="5" t="n">
@@ -6542,14 +6549,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D176" s="5" t="n">
@@ -6580,14 +6587,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D177" s="5" t="n">
@@ -6618,14 +6625,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D178" s="5" t="n">
@@ -6656,14 +6663,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D179" s="5" t="n">
@@ -6694,14 +6701,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D180" s="5" t="n">
@@ -6732,14 +6739,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D181" s="5" t="n">
@@ -6770,14 +6777,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D182" s="5" t="n">
@@ -6805,14 +6812,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D183" s="5" t="n">
@@ -6840,14 +6847,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D184" s="5" t="n">
@@ -6875,14 +6882,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D185" s="5" t="n">
@@ -6910,14 +6917,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D186" s="5" t="n">
@@ -6945,14 +6952,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D187" s="5" t="n">
@@ -6980,14 +6987,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D188" s="5" t="n">
@@ -7015,14 +7022,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="C189" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D189" s="5" t="n">
@@ -7050,14 +7057,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C190" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D190" s="5" t="n">
@@ -7085,14 +7092,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C191" s="8" t="s">
+      <c r="C191" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D191" s="5" t="n">
@@ -7120,14 +7127,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D192" s="5" t="n">
@@ -7155,14 +7162,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D193" s="5" t="n">
@@ -7190,14 +7197,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D194" s="5" t="n">
@@ -7228,14 +7235,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D195" s="5" t="n">
@@ -7266,14 +7273,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C196" s="8" t="s">
+      <c r="C196" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D196" s="5" t="n">
@@ -7304,14 +7311,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D197" s="5" t="n">
@@ -7342,14 +7349,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="C198" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D198" s="5" t="n">
@@ -7380,14 +7387,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C199" s="8" t="s">
+      <c r="C199" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D199" s="5" t="n">
@@ -7418,14 +7425,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D200" s="5" t="n">
@@ -7456,14 +7463,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C201" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D201" s="5" t="n">
@@ -7494,14 +7501,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C202" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D202" s="5" t="n">
@@ -7532,14 +7539,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D203" s="5" t="n">
@@ -7570,14 +7577,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D204" s="5" t="n">
@@ -7608,14 +7615,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D205" s="5" t="n">
@@ -7646,14 +7653,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D206" s="5" t="n">
@@ -7684,14 +7691,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D207" s="5" t="n">
@@ -7722,14 +7729,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D208" s="5" t="n">
@@ -7760,14 +7767,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D209" s="5" t="n">
@@ -7798,14 +7805,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D210" s="5" t="n">
@@ -7836,14 +7843,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C211" s="8" t="s">
+      <c r="C211" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D211" s="5" t="n">
@@ -7874,14 +7881,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="C212" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D212" s="5" t="n">
@@ -7912,14 +7919,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D213" s="5" t="n">
@@ -7950,14 +7957,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C214" s="8" t="s">
+      <c r="C214" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D214" s="5" t="n">
@@ -7988,14 +7995,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C215" s="8" t="s">
+      <c r="C215" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D215" s="5" t="n">
@@ -8026,14 +8033,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C216" s="8" t="s">
+      <c r="C216" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D216" s="5" t="n">
@@ -8064,14 +8071,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="C217" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D217" s="5" t="n">
@@ -8103,7 +8110,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K217"/>
+  <autoFilter ref="A1:K217">
+    <filterColumn colId="2">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Worldwide excluding USA and Canada"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
